--- a/demos/MarkerGenes_Naokos_Paper.xlsx
+++ b/demos/MarkerGenes_Naokos_Paper.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher_penfold/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher_penfold/Desktop/BranchingGPs/demos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="980" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="4900" windowWidth="28160" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -2886,8 +2889,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2915,8 +2926,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3196,11 +3208,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:QK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="CH5" sqref="CH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="76" max="78" width="10.83203125" style="1"/>
+    <col min="86" max="86" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:453" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3428,13 +3444,13 @@
       <c r="BW1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="CA1" t="s">
@@ -3458,7 +3474,7 @@
       <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>85</v>
       </c>
       <c r="CI1" t="s">
@@ -4789,13 +4805,13 @@
       <c r="BW2" t="s">
         <v>527</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BX2" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BY2" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>530</v>
       </c>
       <c r="CA2" t="s">
@@ -4819,7 +4835,7 @@
       <c r="CG2" t="s">
         <v>537</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CH2" s="1" t="s">
         <v>538</v>
       </c>
       <c r="CI2" t="s">
@@ -6150,13 +6166,13 @@
       <c r="BW3">
         <v>0</v>
       </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
+      <c r="BX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="1">
         <v>0</v>
       </c>
       <c r="CA3">
@@ -6180,7 +6196,7 @@
       <c r="CG3">
         <v>0</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" s="1">
         <v>0</v>
       </c>
       <c r="CI3">
@@ -7511,13 +7527,13 @@
       <c r="BW4">
         <v>0</v>
       </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
+      <c r="BX4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="1">
         <v>0</v>
       </c>
       <c r="CA4">
@@ -7541,7 +7557,7 @@
       <c r="CG4">
         <v>0</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" s="1">
         <v>0</v>
       </c>
       <c r="CI4">
@@ -8872,14 +8888,14 @@
       <c r="BW5">
         <v>6</v>
       </c>
-      <c r="BX5">
-        <v>6</v>
-      </c>
-      <c r="BY5">
-        <v>6</v>
-      </c>
-      <c r="BZ5">
-        <v>6</v>
+      <c r="BX5" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>6.1</v>
       </c>
       <c r="CA5">
         <v>6</v>
@@ -8902,8 +8918,8 @@
       <c r="CG5">
         <v>6</v>
       </c>
-      <c r="CH5">
-        <v>6</v>
+      <c r="CH5" s="1">
+        <v>6.1</v>
       </c>
       <c r="CI5">
         <v>6</v>
@@ -10233,13 +10249,13 @@
       <c r="BW6">
         <v>0</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" s="1">
         <v>4.2148999999999999E-2</v>
       </c>
-      <c r="BY6">
-        <v>0</v>
-      </c>
-      <c r="BZ6">
+      <c r="BY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="1">
         <v>8.5528999999999994E-2</v>
       </c>
       <c r="CA6">
@@ -10263,7 +10279,7 @@
       <c r="CG6">
         <v>0.10050000000000001</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" s="1">
         <v>0</v>
       </c>
       <c r="CI6">
@@ -11594,13 +11610,13 @@
       <c r="BW7">
         <v>0</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" s="1">
         <v>13.245900000000001</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" s="1">
         <v>82.5291</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" s="1">
         <v>146.8312</v>
       </c>
       <c r="CA7">
@@ -11624,7 +11640,7 @@
       <c r="CG7">
         <v>1.7843999999999999E-2</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" s="1">
         <v>0</v>
       </c>
       <c r="CI7">
@@ -12955,13 +12971,13 @@
       <c r="BW8">
         <v>0</v>
       </c>
-      <c r="BX8">
-        <v>0</v>
-      </c>
-      <c r="BY8">
-        <v>0</v>
-      </c>
-      <c r="BZ8">
+      <c r="BX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="1">
         <v>0</v>
       </c>
       <c r="CA8">
@@ -12985,7 +13001,7 @@
       <c r="CG8">
         <v>0</v>
       </c>
-      <c r="CH8">
+      <c r="CH8" s="1">
         <v>2.0459999999999998</v>
       </c>
       <c r="CI8">
@@ -14316,13 +14332,13 @@
       <c r="BW9">
         <v>0</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" s="1">
         <v>20.633099999999999</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" s="1">
         <v>71.210099999999997</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" s="1">
         <v>71.081100000000006</v>
       </c>
       <c r="CA9">
@@ -14346,7 +14362,7 @@
       <c r="CG9">
         <v>3.1476999999999998E-2</v>
       </c>
-      <c r="CH9">
+      <c r="CH9" s="1">
         <v>5.4542E-2</v>
       </c>
       <c r="CI9">
@@ -15677,13 +15693,13 @@
       <c r="BW10">
         <v>85.597899999999996</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" s="1">
         <v>38.662300000000002</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" s="1">
         <v>39.672600000000003</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" s="1">
         <v>83.927899999999994</v>
       </c>
       <c r="CA10">
@@ -15707,7 +15723,7 @@
       <c r="CG10">
         <v>46.891100000000002</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" s="1">
         <v>4.7626000000000002E-2</v>
       </c>
       <c r="CI10">
@@ -17038,13 +17054,13 @@
       <c r="BW11">
         <v>1.8935999999999999</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" s="1">
         <v>7.9725000000000001</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" s="1">
         <v>41.0336</v>
       </c>
-      <c r="BZ11">
+      <c r="BZ11" s="1">
         <v>15.4255</v>
       </c>
       <c r="CA11">
@@ -17068,7 +17084,7 @@
       <c r="CG11">
         <v>11.3962</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" s="1">
         <v>83.540199999999999</v>
       </c>
       <c r="CI11">
@@ -18399,13 +18415,13 @@
       <c r="BW12">
         <v>0</v>
       </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12">
+      <c r="BX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="1">
         <v>9.6367999999999995E-2</v>
       </c>
-      <c r="BZ12">
+      <c r="BZ12" s="1">
         <v>0</v>
       </c>
       <c r="CA12">
@@ -18429,7 +18445,7 @@
       <c r="CG12">
         <v>0</v>
       </c>
-      <c r="CH12">
+      <c r="CH12" s="1">
         <v>0</v>
       </c>
       <c r="CI12">
@@ -19760,13 +19776,13 @@
       <c r="BW13">
         <v>0</v>
       </c>
-      <c r="BX13">
+      <c r="BX13" s="1">
         <v>0.68516999999999995</v>
       </c>
-      <c r="BY13">
+      <c r="BY13" s="1">
         <v>3.4803000000000002</v>
       </c>
-      <c r="BZ13">
+      <c r="BZ13" s="1">
         <v>0.78208</v>
       </c>
       <c r="CA13">
@@ -19790,7 +19806,7 @@
       <c r="CG13">
         <v>0</v>
       </c>
-      <c r="CH13">
+      <c r="CH13" s="1">
         <v>2.1232000000000002</v>
       </c>
       <c r="CI13">
@@ -21121,13 +21137,13 @@
       <c r="BW14">
         <v>2.0938999999999999E-2</v>
       </c>
-      <c r="BX14">
+      <c r="BX14" s="1">
         <v>1.9136E-2</v>
       </c>
-      <c r="BY14">
+      <c r="BY14" s="1">
         <v>1.3885E-2</v>
       </c>
-      <c r="BZ14">
+      <c r="BZ14" s="1">
         <v>0</v>
       </c>
       <c r="CA14">
@@ -21151,7 +21167,7 @@
       <c r="CG14">
         <v>0.10646</v>
       </c>
-      <c r="CH14">
+      <c r="CH14" s="1">
         <v>3.9530999999999997E-2</v>
       </c>
       <c r="CI14">
@@ -22482,13 +22498,13 @@
       <c r="BW15">
         <v>133.9247</v>
       </c>
-      <c r="BX15">
+      <c r="BX15" s="1">
         <v>342.35239999999999</v>
       </c>
-      <c r="BY15">
+      <c r="BY15" s="1">
         <v>1299.7162000000001</v>
       </c>
-      <c r="BZ15">
+      <c r="BZ15" s="1">
         <v>986.09479999999996</v>
       </c>
       <c r="CA15">
@@ -22512,7 +22528,7 @@
       <c r="CG15">
         <v>156.22630000000001</v>
       </c>
-      <c r="CH15">
+      <c r="CH15" s="1">
         <v>1242.1432</v>
       </c>
       <c r="CI15">
@@ -23843,13 +23859,13 @@
       <c r="BW16">
         <v>0.14988000000000001</v>
       </c>
-      <c r="BX16">
+      <c r="BX16" s="1">
         <v>0.29676999999999998</v>
       </c>
-      <c r="BY16">
+      <c r="BY16" s="1">
         <v>6.6259999999999999E-2</v>
       </c>
-      <c r="BZ16">
+      <c r="BZ16" s="1">
         <v>6.9486000000000006E-2</v>
       </c>
       <c r="CA16">
@@ -23873,7 +23889,7 @@
       <c r="CG16">
         <v>0</v>
       </c>
-      <c r="CH16">
+      <c r="CH16" s="1">
         <v>0.51875000000000004</v>
       </c>
       <c r="CI16">
@@ -25204,13 +25220,13 @@
       <c r="BW17">
         <v>0</v>
       </c>
-      <c r="BX17">
-        <v>0</v>
-      </c>
-      <c r="BY17">
-        <v>0</v>
-      </c>
-      <c r="BZ17">
+      <c r="BX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="1">
         <v>0</v>
       </c>
       <c r="CA17">
@@ -25234,7 +25250,7 @@
       <c r="CG17">
         <v>3.2164999999999999E-2</v>
       </c>
-      <c r="CH17">
+      <c r="CH17" s="1">
         <v>0</v>
       </c>
       <c r="CI17">
@@ -26565,13 +26581,13 @@
       <c r="BW18">
         <v>0</v>
       </c>
-      <c r="BX18">
-        <v>0</v>
-      </c>
-      <c r="BY18">
-        <v>0</v>
-      </c>
-      <c r="BZ18">
+      <c r="BX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="1">
         <v>0</v>
       </c>
       <c r="CA18">
@@ -26595,7 +26611,7 @@
       <c r="CG18">
         <v>0</v>
       </c>
-      <c r="CH18">
+      <c r="CH18" s="1">
         <v>0</v>
       </c>
       <c r="CI18">
@@ -27926,13 +27942,13 @@
       <c r="BW19">
         <v>127.69799999999999</v>
       </c>
-      <c r="BX19">
+      <c r="BX19" s="1">
         <v>156.12209999999999</v>
       </c>
-      <c r="BY19">
+      <c r="BY19" s="1">
         <v>217.80070000000001</v>
       </c>
-      <c r="BZ19">
+      <c r="BZ19" s="1">
         <v>44.256799999999998</v>
       </c>
       <c r="CA19">
@@ -27956,7 +27972,7 @@
       <c r="CG19">
         <v>140.76589999999999</v>
       </c>
-      <c r="CH19">
+      <c r="CH19" s="1">
         <v>32.8568</v>
       </c>
       <c r="CI19">
@@ -29287,13 +29303,13 @@
       <c r="BW20">
         <v>0</v>
       </c>
-      <c r="BX20">
+      <c r="BX20" s="1">
         <v>1.5855999999999999</v>
       </c>
-      <c r="BY20">
+      <c r="BY20" s="1">
         <v>10.2966</v>
       </c>
-      <c r="BZ20">
+      <c r="BZ20" s="1">
         <v>2.7267999999999999</v>
       </c>
       <c r="CA20">
@@ -29317,7 +29333,7 @@
       <c r="CG20">
         <v>0</v>
       </c>
-      <c r="CH20">
+      <c r="CH20" s="1">
         <v>9.2531000000000002E-2</v>
       </c>
       <c r="CI20">
@@ -30648,13 +30664,13 @@
       <c r="BW21">
         <v>0</v>
       </c>
-      <c r="BX21">
-        <v>0</v>
-      </c>
-      <c r="BY21">
-        <v>0</v>
-      </c>
-      <c r="BZ21">
+      <c r="BX21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="1">
         <v>0</v>
       </c>
       <c r="CA21">
@@ -30678,7 +30694,7 @@
       <c r="CG21">
         <v>0</v>
       </c>
-      <c r="CH21">
+      <c r="CH21" s="1">
         <v>8.2789000000000001E-2</v>
       </c>
       <c r="CI21">
@@ -32009,13 +32025,13 @@
       <c r="BW22">
         <v>25.6159</v>
       </c>
-      <c r="BX22">
+      <c r="BX22" s="1">
         <v>63.775399999999998</v>
       </c>
-      <c r="BY22">
+      <c r="BY22" s="1">
         <v>177.73079999999999</v>
       </c>
-      <c r="BZ22">
+      <c r="BZ22" s="1">
         <v>207.2824</v>
       </c>
       <c r="CA22">
@@ -32039,7 +32055,7 @@
       <c r="CG22">
         <v>1.5304</v>
       </c>
-      <c r="CH22">
+      <c r="CH22" s="1">
         <v>80.388800000000003</v>
       </c>
       <c r="CI22">
@@ -33370,13 +33386,13 @@
       <c r="BW23">
         <v>3.4949000000000001E-2</v>
       </c>
-      <c r="BX23">
-        <v>0</v>
-      </c>
-      <c r="BY23">
-        <v>0</v>
-      </c>
-      <c r="BZ23">
+      <c r="BX23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY23" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="1">
         <v>0</v>
       </c>
       <c r="CA23">
@@ -33400,7 +33416,7 @@
       <c r="CG23">
         <v>0</v>
       </c>
-      <c r="CH23">
+      <c r="CH23" s="1">
         <v>0</v>
       </c>
       <c r="CI23">
@@ -34731,13 +34747,13 @@
       <c r="BW24">
         <v>0</v>
       </c>
-      <c r="BX24">
-        <v>0</v>
-      </c>
-      <c r="BY24">
-        <v>0</v>
-      </c>
-      <c r="BZ24">
+      <c r="BX24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY24" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="1">
         <v>0</v>
       </c>
       <c r="CA24">
@@ -34761,7 +34777,7 @@
       <c r="CG24">
         <v>0</v>
       </c>
-      <c r="CH24">
+      <c r="CH24" s="1">
         <v>0</v>
       </c>
       <c r="CI24">
@@ -36092,13 +36108,13 @@
       <c r="BW25">
         <v>6.2589000000000006E-2</v>
       </c>
-      <c r="BX25">
+      <c r="BX25" s="1">
         <v>8.2363</v>
       </c>
-      <c r="BY25">
+      <c r="BY25" s="1">
         <v>15.3978</v>
       </c>
-      <c r="BZ25">
+      <c r="BZ25" s="1">
         <v>19.3247</v>
       </c>
       <c r="CA25">
@@ -36122,7 +36138,7 @@
       <c r="CG25">
         <v>0</v>
       </c>
-      <c r="CH25">
+      <c r="CH25" s="1">
         <v>7.8771999999999995E-2</v>
       </c>
       <c r="CI25">
@@ -37453,13 +37469,13 @@
       <c r="BW26">
         <v>0</v>
       </c>
-      <c r="BX26">
-        <v>0</v>
-      </c>
-      <c r="BY26">
-        <v>0</v>
-      </c>
-      <c r="BZ26">
+      <c r="BX26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="1">
         <v>0</v>
       </c>
       <c r="CA26">
@@ -37483,7 +37499,7 @@
       <c r="CG26">
         <v>0</v>
       </c>
-      <c r="CH26">
+      <c r="CH26" s="1">
         <v>0</v>
       </c>
       <c r="CI26">
@@ -38814,13 +38830,13 @@
       <c r="BW27">
         <v>27.8536</v>
       </c>
-      <c r="BX27">
+      <c r="BX27" s="1">
         <v>33.002400000000002</v>
       </c>
-      <c r="BY27">
+      <c r="BY27" s="1">
         <v>14.5213</v>
       </c>
-      <c r="BZ27">
+      <c r="BZ27" s="1">
         <v>39.985599999999998</v>
       </c>
       <c r="CA27">
@@ -38844,7 +38860,7 @@
       <c r="CG27">
         <v>3.0695999999999999</v>
       </c>
-      <c r="CH27">
+      <c r="CH27" s="1">
         <v>147.2937</v>
       </c>
       <c r="CI27">
@@ -40175,13 +40191,13 @@
       <c r="BW28">
         <v>0</v>
       </c>
-      <c r="BX28">
-        <v>0</v>
-      </c>
-      <c r="BY28">
-        <v>0</v>
-      </c>
-      <c r="BZ28">
+      <c r="BX28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ28" s="1">
         <v>0</v>
       </c>
       <c r="CA28">
@@ -40205,7 +40221,7 @@
       <c r="CG28">
         <v>0</v>
       </c>
-      <c r="CH28">
+      <c r="CH28" s="1">
         <v>0</v>
       </c>
       <c r="CI28">
@@ -41536,13 +41552,13 @@
       <c r="BW29">
         <v>174.2182</v>
       </c>
-      <c r="BX29">
+      <c r="BX29" s="1">
         <v>135.73249999999999</v>
       </c>
-      <c r="BY29">
+      <c r="BY29" s="1">
         <v>0.43415999999999999</v>
       </c>
-      <c r="BZ29">
+      <c r="BZ29" s="1">
         <v>0.37580000000000002</v>
       </c>
       <c r="CA29">
@@ -41566,7 +41582,7 @@
       <c r="CG29">
         <v>140.0385</v>
       </c>
-      <c r="CH29">
+      <c r="CH29" s="1">
         <v>0.25505</v>
       </c>
       <c r="CI29">
@@ -42897,13 +42913,13 @@
       <c r="BW30">
         <v>0</v>
       </c>
-      <c r="BX30">
+      <c r="BX30" s="1">
         <v>0.11620999999999999</v>
       </c>
-      <c r="BY30">
+      <c r="BY30" s="1">
         <v>4.2160999999999997E-2</v>
       </c>
-      <c r="BZ30">
+      <c r="BZ30" s="1">
         <v>0.1179</v>
       </c>
       <c r="CA30">
@@ -42927,7 +42943,7 @@
       <c r="CG30">
         <v>0.68117000000000005</v>
       </c>
-      <c r="CH30">
+      <c r="CH30" s="1">
         <v>0.16003999999999999</v>
       </c>
       <c r="CI30">
@@ -44258,13 +44274,13 @@
       <c r="BW31">
         <v>78.015299999999996</v>
       </c>
-      <c r="BX31">
+      <c r="BX31" s="1">
         <v>45.111499999999999</v>
       </c>
-      <c r="BY31">
+      <c r="BY31" s="1">
         <v>3.5777000000000001</v>
       </c>
-      <c r="BZ31">
+      <c r="BZ31" s="1">
         <v>49.824399999999997</v>
       </c>
       <c r="CA31">
@@ -44288,7 +44304,7 @@
       <c r="CG31">
         <v>33.344099999999997</v>
       </c>
-      <c r="CH31">
+      <c r="CH31" s="1">
         <v>162.7739</v>
       </c>
       <c r="CI31">
@@ -45619,13 +45635,13 @@
       <c r="BW32">
         <v>0</v>
       </c>
-      <c r="BX32">
-        <v>0</v>
-      </c>
-      <c r="BY32">
-        <v>0</v>
-      </c>
-      <c r="BZ32">
+      <c r="BX32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY32" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ32" s="1">
         <v>0</v>
       </c>
       <c r="CA32">
@@ -45649,7 +45665,7 @@
       <c r="CG32">
         <v>0</v>
       </c>
-      <c r="CH32">
+      <c r="CH32" s="1">
         <v>0</v>
       </c>
       <c r="CI32">
@@ -46980,13 +46996,13 @@
       <c r="BW33">
         <v>0.37423000000000001</v>
       </c>
-      <c r="BX33">
+      <c r="BX33" s="1">
         <v>0.114</v>
       </c>
-      <c r="BY33">
+      <c r="BY33" s="1">
         <v>8.2720000000000002E-2</v>
       </c>
-      <c r="BZ33">
+      <c r="BZ33" s="1">
         <v>0.28915999999999997</v>
       </c>
       <c r="CA33">
@@ -47010,7 +47026,7 @@
       <c r="CG33">
         <v>113.14579999999999</v>
       </c>
-      <c r="CH33">
+      <c r="CH33" s="1">
         <v>0</v>
       </c>
       <c r="CI33">
@@ -48341,13 +48357,13 @@
       <c r="BW34">
         <v>3.9474999999999998</v>
       </c>
-      <c r="BX34">
+      <c r="BX34" s="1">
         <v>3.4032</v>
       </c>
-      <c r="BY34">
+      <c r="BY34" s="1">
         <v>4.5636000000000001</v>
       </c>
-      <c r="BZ34">
+      <c r="BZ34" s="1">
         <v>1.8508</v>
       </c>
       <c r="CA34">
@@ -48371,7 +48387,7 @@
       <c r="CG34">
         <v>10.987500000000001</v>
       </c>
-      <c r="CH34">
+      <c r="CH34" s="1">
         <v>1.8748000000000001E-2</v>
       </c>
       <c r="CI34">
@@ -49702,13 +49718,13 @@
       <c r="BW35">
         <v>0</v>
       </c>
-      <c r="BX35">
+      <c r="BX35" s="1">
         <v>8.1756999999999996E-2</v>
       </c>
-      <c r="BY35">
+      <c r="BY35" s="1">
         <v>5.9325000000000003E-2</v>
       </c>
-      <c r="BZ35">
+      <c r="BZ35" s="1">
         <v>0.12443</v>
       </c>
       <c r="CA35">
@@ -49732,7 +49748,7 @@
       <c r="CG35">
         <v>0.68230000000000002</v>
       </c>
-      <c r="CH35">
+      <c r="CH35" s="1">
         <v>2.8149E-2</v>
       </c>
       <c r="CI35">
@@ -51063,13 +51079,13 @@
       <c r="BW36">
         <v>0</v>
       </c>
-      <c r="BX36">
-        <v>0</v>
-      </c>
-      <c r="BY36">
-        <v>0</v>
-      </c>
-      <c r="BZ36">
+      <c r="BX36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY36" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ36" s="1">
         <v>0</v>
       </c>
       <c r="CA36">
@@ -51093,7 +51109,7 @@
       <c r="CG36">
         <v>0</v>
       </c>
-      <c r="CH36">
+      <c r="CH36" s="1">
         <v>0</v>
       </c>
       <c r="CI36">
@@ -52424,13 +52440,13 @@
       <c r="BW37">
         <v>0</v>
       </c>
-      <c r="BX37">
+      <c r="BX37" s="1">
         <v>3.0577E-2</v>
       </c>
-      <c r="BY37">
-        <v>0</v>
-      </c>
-      <c r="BZ37">
+      <c r="BY37" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ37" s="1">
         <v>0</v>
       </c>
       <c r="CA37">
@@ -52454,7 +52470,7 @@
       <c r="CG37">
         <v>8.5059999999999997E-2</v>
       </c>
-      <c r="CH37">
+      <c r="CH37" s="1">
         <v>7.1166999999999998</v>
       </c>
       <c r="CI37">
@@ -53785,13 +53801,13 @@
       <c r="BW38">
         <v>0</v>
       </c>
-      <c r="BX38">
-        <v>0</v>
-      </c>
-      <c r="BY38">
-        <v>0</v>
-      </c>
-      <c r="BZ38">
+      <c r="BX38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY38" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ38" s="1">
         <v>0</v>
       </c>
       <c r="CA38">
@@ -53815,7 +53831,7 @@
       <c r="CG38">
         <v>0</v>
       </c>
-      <c r="CH38">
+      <c r="CH38" s="1">
         <v>0</v>
       </c>
       <c r="CI38">
@@ -55146,13 +55162,13 @@
       <c r="BW39">
         <v>0</v>
       </c>
-      <c r="BX39">
-        <v>0</v>
-      </c>
-      <c r="BY39">
-        <v>0</v>
-      </c>
-      <c r="BZ39">
+      <c r="BX39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY39" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ39" s="1">
         <v>0</v>
       </c>
       <c r="CA39">
@@ -55176,7 +55192,7 @@
       <c r="CG39">
         <v>0</v>
       </c>
-      <c r="CH39">
+      <c r="CH39" s="1">
         <v>0</v>
       </c>
       <c r="CI39">
@@ -56507,13 +56523,13 @@
       <c r="BW40">
         <v>0</v>
       </c>
-      <c r="BX40">
+      <c r="BX40" s="1">
         <v>3.0074000000000001</v>
       </c>
-      <c r="BY40">
+      <c r="BY40" s="1">
         <v>6.6266999999999996</v>
       </c>
-      <c r="BZ40">
+      <c r="BZ40" s="1">
         <v>2.0467</v>
       </c>
       <c r="CA40">
@@ -56537,7 +56553,7 @@
       <c r="CG40">
         <v>2.4777999999999998</v>
       </c>
-      <c r="CH40">
+      <c r="CH40" s="1">
         <v>0.90919000000000005</v>
       </c>
       <c r="CI40">
@@ -57868,13 +57884,13 @@
       <c r="BW41">
         <v>0.58662999999999998</v>
       </c>
-      <c r="BX41">
+      <c r="BX41" s="1">
         <v>27.706399999999999</v>
       </c>
-      <c r="BY41">
+      <c r="BY41" s="1">
         <v>25.267700000000001</v>
       </c>
-      <c r="BZ41">
+      <c r="BZ41" s="1">
         <v>0.74172000000000005</v>
       </c>
       <c r="CA41">
@@ -57898,7 +57914,7 @@
       <c r="CG41">
         <v>15.901199999999999</v>
       </c>
-      <c r="CH41">
+      <c r="CH41" s="1">
         <v>0.28526000000000001</v>
       </c>
       <c r="CI41">
@@ -59229,13 +59245,13 @@
       <c r="BW42">
         <v>16.477499999999999</v>
       </c>
-      <c r="BX42">
+      <c r="BX42" s="1">
         <v>10.3552</v>
       </c>
-      <c r="BY42">
+      <c r="BY42" s="1">
         <v>16.176400000000001</v>
       </c>
-      <c r="BZ42">
+      <c r="BZ42" s="1">
         <v>5.3909000000000002</v>
       </c>
       <c r="CA42">
@@ -59259,7 +59275,7 @@
       <c r="CG42">
         <v>10.566599999999999</v>
       </c>
-      <c r="CH42">
+      <c r="CH42" s="1">
         <v>16.145099999999999</v>
       </c>
       <c r="CI42">
@@ -60590,13 +60606,13 @@
       <c r="BW43">
         <v>238.09979999999999</v>
       </c>
-      <c r="BX43">
+      <c r="BX43" s="1">
         <v>236.93219999999999</v>
       </c>
-      <c r="BY43">
+      <c r="BY43" s="1">
         <v>284.80070000000001</v>
       </c>
-      <c r="BZ43">
+      <c r="BZ43" s="1">
         <v>77.397000000000006</v>
       </c>
       <c r="CA43">
@@ -60620,7 +60636,7 @@
       <c r="CG43">
         <v>236.45849999999999</v>
       </c>
-      <c r="CH43">
+      <c r="CH43" s="1">
         <v>18.4636</v>
       </c>
       <c r="CI43">
@@ -61951,13 +61967,13 @@
       <c r="BW44">
         <v>1062.3115</v>
       </c>
-      <c r="BX44">
+      <c r="BX44" s="1">
         <v>947.2758</v>
       </c>
-      <c r="BY44">
+      <c r="BY44" s="1">
         <v>570.8202</v>
       </c>
-      <c r="BZ44">
+      <c r="BZ44" s="1">
         <v>2153.0704999999998</v>
       </c>
       <c r="CA44">
@@ -61981,7 +61997,7 @@
       <c r="CG44">
         <v>973.70899999999995</v>
       </c>
-      <c r="CH44">
+      <c r="CH44" s="1">
         <v>958.51599999999996</v>
       </c>
       <c r="CI44">
@@ -63312,13 +63328,13 @@
       <c r="BW45">
         <v>21.932700000000001</v>
       </c>
-      <c r="BX45">
+      <c r="BX45" s="1">
         <v>43.867800000000003</v>
       </c>
-      <c r="BY45">
+      <c r="BY45" s="1">
         <v>49.944000000000003</v>
       </c>
-      <c r="BZ45">
+      <c r="BZ45" s="1">
         <v>12.924899999999999</v>
       </c>
       <c r="CA45">
@@ -63342,7 +63358,7 @@
       <c r="CG45">
         <v>56.759</v>
       </c>
-      <c r="CH45">
+      <c r="CH45" s="1">
         <v>9.3980999999999995</v>
       </c>
       <c r="CI45">
@@ -64673,13 +64689,13 @@
       <c r="BW46">
         <v>46.417400000000001</v>
       </c>
-      <c r="BX46">
+      <c r="BX46" s="1">
         <v>12.9527</v>
       </c>
-      <c r="BY46">
+      <c r="BY46" s="1">
         <v>8.3445999999999998</v>
       </c>
-      <c r="BZ46">
+      <c r="BZ46" s="1">
         <v>1.0691999999999999</v>
       </c>
       <c r="CA46">
@@ -64703,7 +64719,7 @@
       <c r="CG46">
         <v>67.637100000000004</v>
       </c>
-      <c r="CH46">
+      <c r="CH46" s="1">
         <v>3.5226E-2</v>
       </c>
       <c r="CI46">
@@ -66034,13 +66050,13 @@
       <c r="BW47">
         <v>9.8671000000000002E-3</v>
       </c>
-      <c r="BX47">
+      <c r="BX47" s="1">
         <v>0.46888999999999997</v>
       </c>
-      <c r="BY47">
+      <c r="BY47" s="1">
         <v>4.5801000000000001E-2</v>
       </c>
-      <c r="BZ47">
+      <c r="BZ47" s="1">
         <v>0.61297000000000001</v>
       </c>
       <c r="CA47">
@@ -66064,7 +66080,7 @@
       <c r="CG47">
         <v>5.5723000000000003</v>
       </c>
-      <c r="CH47">
+      <c r="CH47" s="1">
         <v>1.2418E-2</v>
       </c>
       <c r="CI47">
@@ -67395,13 +67411,13 @@
       <c r="BW48">
         <v>7.1779999999999999</v>
       </c>
-      <c r="BX48">
+      <c r="BX48" s="1">
         <v>50.400300000000001</v>
       </c>
-      <c r="BY48">
+      <c r="BY48" s="1">
         <v>294.93720000000002</v>
       </c>
-      <c r="BZ48">
+      <c r="BZ48" s="1">
         <v>551.49059999999997</v>
       </c>
       <c r="CA48">
@@ -67425,7 +67441,7 @@
       <c r="CG48">
         <v>5.4574999999999996</v>
       </c>
-      <c r="CH48">
+      <c r="CH48" s="1">
         <v>182.92089999999999</v>
       </c>
       <c r="CI48">
@@ -68756,13 +68772,13 @@
       <c r="BW49">
         <v>2485.2431999999999</v>
       </c>
-      <c r="BX49">
+      <c r="BX49" s="1">
         <v>2020.1304</v>
       </c>
-      <c r="BY49">
+      <c r="BY49" s="1">
         <v>1091.5873999999999</v>
       </c>
-      <c r="BZ49">
+      <c r="BZ49" s="1">
         <v>364.83670000000001</v>
       </c>
       <c r="CA49">
@@ -68786,7 +68802,7 @@
       <c r="CG49">
         <v>3899.3802999999998</v>
       </c>
-      <c r="CH49">
+      <c r="CH49" s="1">
         <v>328.76440000000002</v>
       </c>
       <c r="CI49">
